--- a/mbs-perturbation/chatty/welm/smote/chatty_welm_lin_smote_results.xlsx
+++ b/mbs-perturbation/chatty/welm/smote/chatty_welm_lin_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9739696312364425</v>
+        <v>0.9566265060240964</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9652173913043478</v>
+        <v>0.9903381642512077</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9579439252336448</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9913796348578958</v>
+        <v>0.9871330360460796</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9761388286334056</v>
+        <v>0.9421686746987952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9864864864864865</v>
+        <v>0.9704433497536946</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9755011135857461</v>
+        <v>0.9425837320574163</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9871084473594934</v>
+        <v>0.9876614927037829</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9493975903614458</v>
       </c>
       <c r="C4" t="n">
-        <v>0.941908713692946</v>
+        <v>0.9848484848484849</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9578059071729957</v>
+        <v>0.948905109489051</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9829856571742549</v>
+        <v>0.9783898896802122</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.95</v>
+        <v>0.9542168674698795</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9487179487179487</v>
+        <v>0.9899497487437185</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9507494646680943</v>
+        <v>0.953995157384988</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9680527191589138</v>
+        <v>0.9843313791178113</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9608695652173913</v>
+        <v>0.9637681159420289</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9553571428571429</v>
+        <v>0.9869565217391304</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9596412556053813</v>
+        <v>0.9680170575692963</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9812632415254238</v>
+        <v>0.9895557655954632</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9634999528435347</v>
+        <v>0.9532355508992492</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9595375366117744</v>
+        <v>0.9845072538672472</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9634763903117067</v>
+        <v>0.9542889963468794</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9821579400151963</v>
+        <v>0.9854143126286699</v>
       </c>
     </row>
   </sheetData>
